--- a/Code/Results/Cases/Case_4_182/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_182/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.140956155699598</v>
+        <v>2.07661134372313</v>
       </c>
       <c r="C2">
-        <v>1.145468552812019</v>
+        <v>0.4821953700043196</v>
       </c>
       <c r="D2">
-        <v>0.5628164936394739</v>
+        <v>0.6647245498891436</v>
       </c>
       <c r="E2">
-        <v>0.2518939166179592</v>
+        <v>0.2709984499433773</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.154392553602719</v>
+        <v>2.045243200238332</v>
       </c>
       <c r="H2">
-        <v>1.200074783020398</v>
+        <v>1.658982787693475</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1496956388727853</v>
+        <v>0.1409426208235516</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.73353278824111</v>
+        <v>1.540212862536709</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.580877894155606</v>
+        <v>1.940982682918502</v>
       </c>
       <c r="C3">
-        <v>0.9870653391308508</v>
+        <v>0.443013500792091</v>
       </c>
       <c r="D3">
-        <v>0.5047236365628862</v>
+        <v>0.6552736699228205</v>
       </c>
       <c r="E3">
-        <v>0.2245211390884094</v>
+        <v>0.2662864753111407</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.933611555143386</v>
+        <v>2.00779472421118</v>
       </c>
       <c r="H3">
-        <v>1.107541358783152</v>
+        <v>1.649487226274772</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1323948087825926</v>
+        <v>0.1377665589584325</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7883844798876574</v>
+        <v>1.560852772425484</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.243193825547792</v>
+        <v>1.858873804843142</v>
       </c>
       <c r="C4">
-        <v>0.8915041251316325</v>
+        <v>0.4192009147496378</v>
       </c>
       <c r="D4">
-        <v>0.4702157684710926</v>
+        <v>0.6498472391969017</v>
       </c>
       <c r="E4">
-        <v>0.2082498633754426</v>
+        <v>0.2635539597482719</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.804156825468908</v>
+        <v>1.986296759856145</v>
       </c>
       <c r="H4">
-        <v>1.053914608249215</v>
+        <v>1.644661129361339</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1221022221903354</v>
+        <v>0.1359051221321721</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8238064662839548</v>
+        <v>1.574170500552352</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.106923466258024</v>
+        <v>1.825705081035835</v>
       </c>
       <c r="C5">
-        <v>0.8529241237640406</v>
+        <v>0.4095580047718386</v>
       </c>
       <c r="D5">
-        <v>0.4564136592771604</v>
+        <v>0.6477302368544144</v>
       </c>
       <c r="E5">
-        <v>0.2017386260287921</v>
+        <v>0.2624806502429493</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.752770067836195</v>
+        <v>1.977909403906409</v>
       </c>
       <c r="H5">
-        <v>1.032784576705126</v>
+        <v>1.642945834149856</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1179810850209861</v>
+        <v>0.1351687364383736</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8386562477193316</v>
+        <v>1.579759233052759</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.084370638929556</v>
+        <v>1.820214967828861</v>
       </c>
       <c r="C6">
-        <v>0.8465380195194996</v>
+        <v>0.4079604641194408</v>
       </c>
       <c r="D6">
-        <v>0.4541366657814194</v>
+        <v>0.6473843964304535</v>
       </c>
       <c r="E6">
-        <v>0.200664235414493</v>
+        <v>0.262304851424112</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.744315290415756</v>
+        <v>1.976539150441766</v>
       </c>
       <c r="H6">
-        <v>1.029317480293145</v>
+        <v>1.642676160307559</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1173009230847057</v>
+        <v>0.135047794994783</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8411464740485641</v>
+        <v>1.58069698732686</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.241350893685421</v>
+        <v>1.858425303360548</v>
       </c>
       <c r="C7">
-        <v>0.8909824377240625</v>
+        <v>0.4190706214428417</v>
       </c>
       <c r="D7">
-        <v>0.4700286150923034</v>
+        <v>0.6498183071493884</v>
       </c>
       <c r="E7">
-        <v>0.2081615860508137</v>
+        <v>0.2635393221418667</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.803458481012342</v>
+        <v>1.986182137555744</v>
       </c>
       <c r="H7">
-        <v>1.053626811062173</v>
+        <v>1.644636980000087</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1220463591308061</v>
+        <v>0.1358951014058505</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8240050841811808</v>
+        <v>1.574245218288567</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.946412396684366</v>
+        <v>2.029602781777442</v>
       </c>
       <c r="C8">
-        <v>1.090457079075748</v>
+        <v>0.468634090284354</v>
       </c>
       <c r="D8">
-        <v>0.5425248041156578</v>
+        <v>0.6613875381064815</v>
       </c>
       <c r="E8">
-        <v>0.2423349106457096</v>
+        <v>0.2693403021818312</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.076893461525344</v>
+        <v>2.032018835524809</v>
       </c>
       <c r="H8">
-        <v>1.167457537018947</v>
+        <v>1.655499595076293</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1436555297740725</v>
+        <v>0.1398290270486058</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7520692228471368</v>
+        <v>1.547195402628994</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.389613283130643</v>
+        <v>2.374671560740751</v>
       </c>
       <c r="C9">
-        <v>1.498451637431117</v>
+        <v>0.567813695820746</v>
       </c>
       <c r="D9">
-        <v>0.6955341733431908</v>
+        <v>0.6870797433008988</v>
       </c>
       <c r="E9">
-        <v>0.314379873022645</v>
+        <v>0.2820001651109081</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.670116291384517</v>
+        <v>2.133906850354037</v>
       </c>
       <c r="H9">
-        <v>1.419990774343489</v>
+        <v>1.684824399769468</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1891551633531137</v>
+        <v>0.14825375156164</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6260102729951882</v>
+        <v>1.499287098368466</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.505046070228389</v>
+        <v>2.634122376775622</v>
       </c>
       <c r="C10">
-        <v>1.81385381165569</v>
+        <v>0.6419552937402386</v>
       </c>
       <c r="D10">
-        <v>0.8171781393211006</v>
+        <v>0.7078160465485439</v>
       </c>
       <c r="E10">
-        <v>0.3716332175316737</v>
+        <v>0.2920988158631204</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.154457471133412</v>
+        <v>2.216281013717577</v>
       </c>
       <c r="H10">
-        <v>1.629820884138923</v>
+        <v>1.71134258350159</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2253000805517047</v>
+        <v>0.1548866232292738</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.544429302262202</v>
+        <v>1.467247385873932</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.029315130139764</v>
+        <v>2.753487500258473</v>
       </c>
       <c r="C11">
-        <v>1.962187924418686</v>
+        <v>0.6759754768783637</v>
       </c>
       <c r="D11">
-        <v>0.8752228137800842</v>
+        <v>0.7176599281451672</v>
       </c>
       <c r="E11">
-        <v>0.3989548618584564</v>
+        <v>0.296869423546525</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.389011724801776</v>
+        <v>2.255431906987866</v>
       </c>
       <c r="H11">
-        <v>1.732276183616477</v>
+        <v>1.724504665527917</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2425517949809546</v>
+        <v>0.158002632135549</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5102203585195326</v>
+        <v>1.453363532262934</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.230749790573782</v>
+        <v>2.798883907415927</v>
       </c>
       <c r="C12">
-        <v>2.019201923208641</v>
+        <v>0.6889011829067044</v>
       </c>
       <c r="D12">
-        <v>0.8976624348381677</v>
+        <v>0.7214471096501711</v>
       </c>
       <c r="E12">
-        <v>0.4095182249970222</v>
+        <v>0.2987015841152072</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.480245459092657</v>
+        <v>2.270502170192515</v>
       </c>
       <c r="H12">
-        <v>1.772252778750357</v>
+        <v>1.729648255001308</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2492228761076802</v>
+        <v>0.1591969486833165</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4977351510032619</v>
+        <v>1.448206023694901</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.187229484606064</v>
+        <v>2.78909824212127</v>
       </c>
       <c r="C13">
-        <v>2.006882870394179</v>
+        <v>0.6861154738400046</v>
       </c>
       <c r="D13">
-        <v>0.8928079910391773</v>
+        <v>0.7206288181841103</v>
       </c>
       <c r="E13">
-        <v>0.4072329565294623</v>
+        <v>0.2983058517377515</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.460482801686197</v>
+        <v>2.267245584395823</v>
       </c>
       <c r="H13">
-        <v>1.763587617659397</v>
+        <v>1.728533379520542</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2477796031149069</v>
+        <v>0.158939090351339</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5004022905902161</v>
+        <v>1.449312327734575</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.045826009371012</v>
+        <v>2.757218357154954</v>
       </c>
       <c r="C14">
-        <v>1.96686068639616</v>
+        <v>0.6770380154686677</v>
       </c>
       <c r="D14">
-        <v>0.8770592863526758</v>
+        <v>0.7179703064730631</v>
       </c>
       <c r="E14">
-        <v>0.3998193491352353</v>
+        <v>0.2970196414079354</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.39646689175305</v>
+        <v>2.256666823938929</v>
       </c>
       <c r="H14">
-        <v>1.735540365239672</v>
+        <v>1.724924629201098</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2430977199232842</v>
+        <v>0.1581006007134533</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5091834674413676</v>
+        <v>1.452937213102707</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.959606309877927</v>
+        <v>2.737716541228394</v>
       </c>
       <c r="C15">
-        <v>1.942460452912201</v>
+        <v>0.6714834371193774</v>
       </c>
       <c r="D15">
-        <v>0.8674748460310013</v>
+        <v>0.7163496554316851</v>
       </c>
       <c r="E15">
-        <v>0.3953076875470956</v>
+        <v>0.2962351457467136</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.35758150923894</v>
+        <v>2.250218989954845</v>
       </c>
       <c r="H15">
-        <v>1.718519746933055</v>
+        <v>1.722734964855391</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2402486452473198</v>
+        <v>0.1575888754451853</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5146249450159672</v>
+        <v>1.455170602196247</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.471162427762579</v>
+        <v>2.626348778790145</v>
       </c>
       <c r="C16">
-        <v>1.804269381793517</v>
+        <v>0.6397379627795203</v>
       </c>
       <c r="D16">
-        <v>0.8134450001676043</v>
+        <v>0.7071810300924994</v>
       </c>
       <c r="E16">
-        <v>0.3698761280820406</v>
+        <v>0.2917906201110299</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.139445117402772</v>
+        <v>2.21375646746182</v>
       </c>
       <c r="H16">
-        <v>1.623280173296621</v>
+        <v>1.71050463946969</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.224190711354197</v>
+        <v>0.1546849841620457</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5467275637272024</v>
+        <v>1.468168688874457</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.176153633530816</v>
+        <v>2.558373337961996</v>
       </c>
       <c r="C17">
-        <v>1.720833101271467</v>
+        <v>0.6203387663260287</v>
       </c>
       <c r="D17">
-        <v>0.7810393574243619</v>
+        <v>0.7016619090582026</v>
       </c>
       <c r="E17">
-        <v>0.3546239660845742</v>
+        <v>0.289109460668989</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.009512182036644</v>
+        <v>2.191820124899891</v>
       </c>
       <c r="H17">
-        <v>1.566761161555377</v>
+        <v>1.703284143988384</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2145614000636868</v>
+        <v>0.152928929449871</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5671990292298759</v>
+        <v>1.476320054164916</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.008025672415442</v>
+        <v>2.519401584964612</v>
       </c>
       <c r="C18">
-        <v>1.673289888019212</v>
+        <v>0.6092083661794163</v>
       </c>
       <c r="D18">
-        <v>0.7626506045730537</v>
+        <v>0.6985260991960729</v>
       </c>
       <c r="E18">
-        <v>0.3459691959540621</v>
+        <v>0.2875839447192448</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.936091918698992</v>
+        <v>2.179360705831442</v>
       </c>
       <c r="H18">
-        <v>1.534900235522514</v>
+        <v>1.699234448445367</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2090975387960725</v>
+        <v>0.1519281718263557</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.579243344283995</v>
+        <v>1.48107352276795</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.951353760664404</v>
+        <v>2.506227962688911</v>
       </c>
       <c r="C19">
-        <v>1.657265336497062</v>
+        <v>0.6054445009119149</v>
       </c>
       <c r="D19">
-        <v>0.7564654966921296</v>
+        <v>0.6974709915405981</v>
       </c>
       <c r="E19">
-        <v>0.3430581462972597</v>
+        <v>0.2870702781779642</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.911448461187604</v>
+        <v>2.175169160398781</v>
       </c>
       <c r="H19">
-        <v>1.524219052878209</v>
+        <v>1.697880998500267</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2072597841105477</v>
+        <v>0.1515909212434394</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5833662215472657</v>
+        <v>1.48269411403335</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.207393817118088</v>
+        <v>2.565596387219045</v>
       </c>
       <c r="C20">
-        <v>1.729667786540745</v>
+        <v>0.6224009908617631</v>
       </c>
       <c r="D20">
-        <v>0.7844626368346894</v>
+        <v>0.7022454264047155</v>
       </c>
       <c r="E20">
-        <v>0.3562351593844895</v>
+        <v>0.2893931533330374</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.023205325340172</v>
+        <v>2.194138932081188</v>
       </c>
       <c r="H20">
-        <v>1.572709554425217</v>
+        <v>1.704042072560611</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.215578582306307</v>
+        <v>0.15311490301508</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5649915501706246</v>
+        <v>1.475445593787327</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.087276551217087</v>
+        <v>2.766576925782033</v>
       </c>
       <c r="C21">
-        <v>1.978592014291905</v>
+        <v>0.6797031107390126</v>
       </c>
       <c r="D21">
-        <v>0.8816719802532589</v>
+        <v>0.7187495569641555</v>
       </c>
       <c r="E21">
-        <v>0.4019907128773781</v>
+        <v>0.2973967349864637</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.415201189645131</v>
+        <v>2.259767395436569</v>
       </c>
       <c r="H21">
-        <v>1.743745011308647</v>
+        <v>1.725980269554924</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.244468958128266</v>
+        <v>0.1583464946451727</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5065910406038512</v>
+        <v>1.451869777313377</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.67954972163443</v>
+        <v>2.899069761881208</v>
       </c>
       <c r="C22">
-        <v>2.146278582671016</v>
+        <v>0.717404433890124</v>
       </c>
       <c r="D22">
-        <v>0.9479228065411007</v>
+        <v>0.7298830844020472</v>
       </c>
       <c r="E22">
-        <v>0.4331808581011032</v>
+        <v>0.3027770684382389</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.685676205643773</v>
+        <v>2.304087084250767</v>
       </c>
       <c r="H22">
-        <v>1.862500480355038</v>
+        <v>1.741247884878504</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2641692046688178</v>
+        <v>0.1618493716042622</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4711870848518558</v>
+        <v>1.437044821080242</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.3616859947183</v>
+        <v>2.828250551649376</v>
       </c>
       <c r="C23">
-        <v>2.056269041480448</v>
+        <v>0.6972592525116283</v>
       </c>
       <c r="D23">
-        <v>0.9122884286253736</v>
+        <v>0.7239090010752705</v>
       </c>
       <c r="E23">
-        <v>0.4164037380092438</v>
+        <v>0.2998917242885</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.539873538069315</v>
+        <v>2.280301091656838</v>
       </c>
       <c r="H23">
-        <v>1.798415667845632</v>
+        <v>1.733013736041926</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2535716597570854</v>
+        <v>0.1599721048381042</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4898105080751307</v>
+        <v>1.444903609557912</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.193265566405159</v>
+        <v>2.562330509736455</v>
       </c>
       <c r="C24">
-        <v>1.725672310851621</v>
+        <v>0.6214685892697958</v>
       </c>
       <c r="D24">
-        <v>0.7829142245453227</v>
+        <v>0.7019815023554372</v>
       </c>
       <c r="E24">
-        <v>0.3555063865799966</v>
+        <v>0.2892648463147296</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.017010695563641</v>
+        <v>2.193090125919781</v>
       </c>
       <c r="H24">
-        <v>1.570018328202536</v>
+        <v>1.703699097121159</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2151184910577086</v>
+        <v>0.1530307969011204</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5659886986933742</v>
+        <v>1.475840728244194</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.990975412017747</v>
+        <v>2.280295163257222</v>
       </c>
       <c r="C25">
-        <v>1.385765917631716</v>
+        <v>0.540763877812708</v>
       </c>
       <c r="D25">
-        <v>0.6527316587358598</v>
+        <v>0.6798047277929129</v>
       </c>
       <c r="E25">
-        <v>0.2942321358348821</v>
+        <v>0.2784363683575606</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.502224870264826</v>
+        <v>2.105037997985534</v>
       </c>
       <c r="H25">
-        <v>1.347925860582478</v>
+        <v>1.67602392367013</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1764349027352381</v>
+        <v>0.1458975536202871</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6583274152482872</v>
+        <v>1.511694908494142</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_182/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_182/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.07661134372313</v>
+        <v>4.140956155699769</v>
       </c>
       <c r="C2">
-        <v>0.4821953700043196</v>
+        <v>1.145468552812019</v>
       </c>
       <c r="D2">
-        <v>0.6647245498891436</v>
+        <v>0.5628164936392466</v>
       </c>
       <c r="E2">
-        <v>0.2709984499433773</v>
+        <v>0.2518939166179663</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.045243200238332</v>
+        <v>2.154392553602747</v>
       </c>
       <c r="H2">
-        <v>1.658982787693475</v>
+        <v>1.200074783020398</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1409426208235516</v>
+        <v>0.1496956388728989</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.540212862536709</v>
+        <v>0.733532788241174</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.940982682918502</v>
+        <v>3.580877894155549</v>
       </c>
       <c r="C3">
-        <v>0.443013500792091</v>
+        <v>0.9870653391309361</v>
       </c>
       <c r="D3">
-        <v>0.6552736699228205</v>
+        <v>0.5047236365628862</v>
       </c>
       <c r="E3">
-        <v>0.2662864753111407</v>
+        <v>0.2245211390883952</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.00779472421118</v>
+        <v>1.933611555143386</v>
       </c>
       <c r="H3">
-        <v>1.649487226274772</v>
+        <v>1.107541358783152</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1377665589584325</v>
+        <v>0.1323948087825855</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.560852772425484</v>
+        <v>0.7883844798876467</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.858873804843142</v>
+        <v>3.243193825547905</v>
       </c>
       <c r="C4">
-        <v>0.4192009147496378</v>
+        <v>0.8915041251316893</v>
       </c>
       <c r="D4">
-        <v>0.6498472391969017</v>
+        <v>0.4702157684710926</v>
       </c>
       <c r="E4">
-        <v>0.2635539597482719</v>
+        <v>0.2082498633754639</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.986296759856145</v>
+        <v>1.804156825468851</v>
       </c>
       <c r="H4">
-        <v>1.644661129361339</v>
+        <v>1.053914608249102</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1359051221321721</v>
+        <v>0.1221022221903425</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.574170500552352</v>
+        <v>0.8238064662840046</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.825705081035835</v>
+        <v>3.106923466258138</v>
       </c>
       <c r="C5">
-        <v>0.4095580047718386</v>
+        <v>0.8529241237639553</v>
       </c>
       <c r="D5">
-        <v>0.6477302368544144</v>
+        <v>0.4564136592773025</v>
       </c>
       <c r="E5">
-        <v>0.2624806502429493</v>
+        <v>0.201738626028785</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.977909403906409</v>
+        <v>1.752770067836252</v>
       </c>
       <c r="H5">
-        <v>1.642945834149856</v>
+        <v>1.032784576705126</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1351687364383736</v>
+        <v>0.1179810850209293</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.579759233052759</v>
+        <v>0.8386562477193138</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.820214967828861</v>
+        <v>3.084370638929499</v>
       </c>
       <c r="C6">
-        <v>0.4079604641194408</v>
+        <v>0.8465380195194712</v>
       </c>
       <c r="D6">
-        <v>0.6473843964304535</v>
+        <v>0.4541366657813626</v>
       </c>
       <c r="E6">
-        <v>0.262304851424112</v>
+        <v>0.2006642354145285</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.976539150441766</v>
+        <v>1.744315290415784</v>
       </c>
       <c r="H6">
-        <v>1.642676160307559</v>
+        <v>1.029317480293145</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.135047794994783</v>
+        <v>0.1173009230846915</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.58069698732686</v>
+        <v>0.841146474048589</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.858425303360548</v>
+        <v>3.241350893685421</v>
       </c>
       <c r="C7">
-        <v>0.4190706214428417</v>
+        <v>0.8909824377240625</v>
       </c>
       <c r="D7">
-        <v>0.6498183071493884</v>
+        <v>0.4700286150923034</v>
       </c>
       <c r="E7">
-        <v>0.2635393221418667</v>
+        <v>0.2081615860507569</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.986182137555744</v>
+        <v>1.803458481012314</v>
       </c>
       <c r="H7">
-        <v>1.644636980000087</v>
+        <v>1.053626811062315</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1358951014058505</v>
+        <v>0.122046359130799</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.574245218288567</v>
+        <v>0.8240050841812092</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.029602781777442</v>
+        <v>3.946412396684366</v>
       </c>
       <c r="C8">
-        <v>0.468634090284354</v>
+        <v>1.090457079076202</v>
       </c>
       <c r="D8">
-        <v>0.6613875381064815</v>
+        <v>0.5425248041157147</v>
       </c>
       <c r="E8">
-        <v>0.2693403021818312</v>
+        <v>0.2423349106456882</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.032018835524809</v>
+        <v>2.076893461525316</v>
       </c>
       <c r="H8">
-        <v>1.655499595076293</v>
+        <v>1.167457537018947</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1398290270486058</v>
+        <v>0.1436555297740583</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.547195402628994</v>
+        <v>0.7520692228471262</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.374671560740751</v>
+        <v>5.389613283130643</v>
       </c>
       <c r="C9">
-        <v>0.567813695820746</v>
+        <v>1.498451637431174</v>
       </c>
       <c r="D9">
-        <v>0.6870797433008988</v>
+        <v>0.6955341733433045</v>
       </c>
       <c r="E9">
-        <v>0.2820001651109081</v>
+        <v>0.3143798730227161</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.133906850354037</v>
+        <v>2.670116291384488</v>
       </c>
       <c r="H9">
-        <v>1.684824399769468</v>
+        <v>1.419990774343376</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.14825375156164</v>
+        <v>0.1891551633531492</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.499287098368466</v>
+        <v>0.6260102729951669</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.634122376775622</v>
+        <v>6.505046070228275</v>
       </c>
       <c r="C10">
-        <v>0.6419552937402386</v>
+        <v>1.813853811655463</v>
       </c>
       <c r="D10">
-        <v>0.7078160465485439</v>
+        <v>0.8171781393208448</v>
       </c>
       <c r="E10">
-        <v>0.2920988158631204</v>
+        <v>0.3716332175316808</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.216281013717577</v>
+        <v>3.154457471133469</v>
       </c>
       <c r="H10">
-        <v>1.71134258350159</v>
+        <v>1.629820884138894</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1548866232292738</v>
+        <v>0.225300080551591</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.467247385873932</v>
+        <v>0.5444293022622517</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.753487500258473</v>
+        <v>7.029315130139594</v>
       </c>
       <c r="C11">
-        <v>0.6759754768783637</v>
+        <v>1.962187924418799</v>
       </c>
       <c r="D11">
-        <v>0.7176599281451672</v>
+        <v>0.8752228137803399</v>
       </c>
       <c r="E11">
-        <v>0.296869423546525</v>
+        <v>0.3989548618583427</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.255431906987866</v>
+        <v>3.389011724801748</v>
       </c>
       <c r="H11">
-        <v>1.724504665527917</v>
+        <v>1.732276183616591</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.158002632135549</v>
+        <v>0.2425517949808125</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.453363532262934</v>
+        <v>0.5102203585195397</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.798883907415927</v>
+        <v>7.230749790573952</v>
       </c>
       <c r="C12">
-        <v>0.6889011829067044</v>
+        <v>2.019201923208698</v>
       </c>
       <c r="D12">
-        <v>0.7214471096501711</v>
+        <v>0.8976624348381961</v>
       </c>
       <c r="E12">
-        <v>0.2987015841152072</v>
+        <v>0.4095182249970009</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.270502170192515</v>
+        <v>3.480245459092743</v>
       </c>
       <c r="H12">
-        <v>1.729648255001308</v>
+        <v>1.772252778750357</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1591969486833165</v>
+        <v>0.249222876107595</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.448206023694901</v>
+        <v>0.4977351510032548</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.78909824212127</v>
+        <v>7.187229484606007</v>
       </c>
       <c r="C13">
-        <v>0.6861154738400046</v>
+        <v>2.006882870394179</v>
       </c>
       <c r="D13">
-        <v>0.7206288181841103</v>
+        <v>0.8928079910392626</v>
       </c>
       <c r="E13">
-        <v>0.2983058517377515</v>
+        <v>0.4072329565295192</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.267245584395823</v>
+        <v>3.46048280168614</v>
       </c>
       <c r="H13">
-        <v>1.728533379520542</v>
+        <v>1.763587617659311</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.158939090351339</v>
+        <v>0.2477796031148074</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.449312327734575</v>
+        <v>0.5004022905902161</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.757218357154954</v>
+        <v>7.045826009370899</v>
       </c>
       <c r="C14">
-        <v>0.6770380154686677</v>
+        <v>1.966860686396387</v>
       </c>
       <c r="D14">
-        <v>0.7179703064730631</v>
+        <v>0.8770592863528464</v>
       </c>
       <c r="E14">
-        <v>0.2970196414079354</v>
+        <v>0.3998193491352424</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.256666823938929</v>
+        <v>3.396466891752965</v>
       </c>
       <c r="H14">
-        <v>1.724924629201098</v>
+        <v>1.7355403652397</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1581006007134533</v>
+        <v>0.2430977199234263</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.452937213102707</v>
+        <v>0.5091834674413818</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.737716541228394</v>
+        <v>6.959606309877984</v>
       </c>
       <c r="C15">
-        <v>0.6714834371193774</v>
+        <v>1.942460452912201</v>
       </c>
       <c r="D15">
-        <v>0.7163496554316851</v>
+        <v>0.8674748460310013</v>
       </c>
       <c r="E15">
-        <v>0.2962351457467136</v>
+        <v>0.3953076875470956</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.250218989954845</v>
+        <v>3.357581509238884</v>
       </c>
       <c r="H15">
-        <v>1.722734964855391</v>
+        <v>1.718519746933055</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1575888754451853</v>
+        <v>0.2402486452474903</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.455170602196247</v>
+        <v>0.5146249450159885</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.626348778790145</v>
+        <v>6.471162427762522</v>
       </c>
       <c r="C16">
-        <v>0.6397379627795203</v>
+        <v>1.804269381793517</v>
       </c>
       <c r="D16">
-        <v>0.7071810300924994</v>
+        <v>0.8134450001675759</v>
       </c>
       <c r="E16">
-        <v>0.2917906201110299</v>
+        <v>0.3698761280820335</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.21375646746182</v>
+        <v>3.139445117402687</v>
       </c>
       <c r="H16">
-        <v>1.71050463946969</v>
+        <v>1.623280173296479</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1546849841620457</v>
+        <v>0.2241907113542823</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.468168688874457</v>
+        <v>0.5467275637271882</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.558373337961996</v>
+        <v>6.176153633530703</v>
       </c>
       <c r="C17">
-        <v>0.6203387663260287</v>
+        <v>1.72083310127141</v>
       </c>
       <c r="D17">
-        <v>0.7016619090582026</v>
+        <v>0.7810393574245325</v>
       </c>
       <c r="E17">
-        <v>0.289109460668989</v>
+        <v>0.3546239660846169</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.191820124899891</v>
+        <v>3.009512182036474</v>
       </c>
       <c r="H17">
-        <v>1.703284143988384</v>
+        <v>1.56676116155549</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.152928929449871</v>
+        <v>0.2145614000636016</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.476320054164916</v>
+        <v>0.5671990292299327</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.519401584964612</v>
+        <v>6.008025672415442</v>
       </c>
       <c r="C18">
-        <v>0.6092083661794163</v>
+        <v>1.67328988801944</v>
       </c>
       <c r="D18">
-        <v>0.6985260991960729</v>
+        <v>0.7626506045730821</v>
       </c>
       <c r="E18">
-        <v>0.2875839447192448</v>
+        <v>0.3459691959540621</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.179360705831442</v>
+        <v>2.93609191869902</v>
       </c>
       <c r="H18">
-        <v>1.699234448445367</v>
+        <v>1.534900235522514</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1519281718263557</v>
+        <v>0.2090975387959588</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.48107352276795</v>
+        <v>0.579243344284059</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.506227962688911</v>
+        <v>5.951353760664347</v>
       </c>
       <c r="C19">
-        <v>0.6054445009119149</v>
+        <v>1.657265336496948</v>
       </c>
       <c r="D19">
-        <v>0.6974709915405981</v>
+        <v>0.756465496692158</v>
       </c>
       <c r="E19">
-        <v>0.2870702781779642</v>
+        <v>0.3430581462972384</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.175169160398781</v>
+        <v>2.911448461187547</v>
       </c>
       <c r="H19">
-        <v>1.697880998500267</v>
+        <v>1.524219052878095</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1515909212434394</v>
+        <v>0.2072597841104766</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.48269411403335</v>
+        <v>0.5833662215472728</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.565596387219045</v>
+        <v>6.207393817118032</v>
       </c>
       <c r="C20">
-        <v>0.6224009908617631</v>
+        <v>1.729667786540915</v>
       </c>
       <c r="D20">
-        <v>0.7022454264047155</v>
+        <v>0.7844626368347178</v>
       </c>
       <c r="E20">
-        <v>0.2893931533330374</v>
+        <v>0.3562351593844895</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.194138932081188</v>
+        <v>3.023205325340143</v>
       </c>
       <c r="H20">
-        <v>1.704042072560611</v>
+        <v>1.572709554425217</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.15311490301508</v>
+        <v>0.2155785823063923</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.475445593787327</v>
+        <v>0.5649915501705607</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.766576925782033</v>
+        <v>7.087276551217144</v>
       </c>
       <c r="C21">
-        <v>0.6797031107390126</v>
+        <v>1.978592014292133</v>
       </c>
       <c r="D21">
-        <v>0.7187495569641555</v>
+        <v>0.8816719802532589</v>
       </c>
       <c r="E21">
-        <v>0.2973967349864637</v>
+        <v>0.4019907128773852</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.259767395436569</v>
+        <v>3.415201189645131</v>
       </c>
       <c r="H21">
-        <v>1.725980269554924</v>
+        <v>1.743745011308675</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1583464946451727</v>
+        <v>0.2444689581281665</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.451869777313377</v>
+        <v>0.5065910406038583</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.899069761881208</v>
+        <v>7.679549721634316</v>
       </c>
       <c r="C22">
-        <v>0.717404433890124</v>
+        <v>2.146278582671073</v>
       </c>
       <c r="D22">
-        <v>0.7298830844020472</v>
+        <v>0.9479228065411007</v>
       </c>
       <c r="E22">
-        <v>0.3027770684382389</v>
+        <v>0.433180858101089</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.304087084250767</v>
+        <v>3.685676205643773</v>
       </c>
       <c r="H22">
-        <v>1.741247884878504</v>
+        <v>1.862500480355152</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1618493716042622</v>
+        <v>0.2641692046688462</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.437044821080242</v>
+        <v>0.4711870848518132</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.828250551649376</v>
+        <v>7.36168599471813</v>
       </c>
       <c r="C23">
-        <v>0.6972592525116283</v>
+        <v>2.05626904148022</v>
       </c>
       <c r="D23">
-        <v>0.7239090010752705</v>
+        <v>0.9122884286253168</v>
       </c>
       <c r="E23">
-        <v>0.2998917242885</v>
+        <v>0.4164037380092296</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.280301091656838</v>
+        <v>3.539873538069401</v>
       </c>
       <c r="H23">
-        <v>1.733013736041926</v>
+        <v>1.798415667845603</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1599721048381042</v>
+        <v>0.2535716597572417</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.444903609557912</v>
+        <v>0.4898105080751876</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.562330509736455</v>
+        <v>6.193265566405159</v>
       </c>
       <c r="C24">
-        <v>0.6214685892697958</v>
+        <v>1.725672310851678</v>
       </c>
       <c r="D24">
-        <v>0.7019815023554372</v>
+        <v>0.7829142245452942</v>
       </c>
       <c r="E24">
-        <v>0.2892648463147296</v>
+        <v>0.3555063865799539</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.193090125919781</v>
+        <v>3.017010695563641</v>
       </c>
       <c r="H24">
-        <v>1.703699097121159</v>
+        <v>1.570018328202536</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1530307969011204</v>
+        <v>0.2151184910575239</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.475840728244194</v>
+        <v>0.565988698693431</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.280295163257222</v>
+        <v>4.990975412017747</v>
       </c>
       <c r="C25">
-        <v>0.540763877812708</v>
+        <v>1.385765917631602</v>
       </c>
       <c r="D25">
-        <v>0.6798047277929129</v>
+        <v>0.6527316587358314</v>
       </c>
       <c r="E25">
-        <v>0.2784363683575606</v>
+        <v>0.2942321358349105</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.105037997985534</v>
+        <v>2.502224870264854</v>
       </c>
       <c r="H25">
-        <v>1.67602392367013</v>
+        <v>1.347925860582365</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1458975536202871</v>
+        <v>0.1764349027353731</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.511694908494142</v>
+        <v>0.6583274152482943</v>
       </c>
       <c r="O25">
         <v>0</v>
